--- a/documnets/外部設計（個人）/外部設計書_ヨッシーアイランド（小川）.xlsx
+++ b/documnets/外部設計（個人）/外部設計書_ヨッシーアイランド（小川）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\外部設計（個人）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB23D4EE-6562-47D5-9F00-DB90A0CBFD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF0EF4E-482B-44B2-9B87-B1B6DD1E0D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="2610" windowWidth="15585" windowHeight="9420" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3525" yWindow="1320" windowWidth="15585" windowHeight="9420" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログインページ" sheetId="20" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="85">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -438,13 +438,6 @@
       <t>リ</t>
     </rPh>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ページロード（変更する）</t>
-    <rPh sb="7" eb="9">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>「２　トップへ戻る」クリック</t>
@@ -1747,6 +1740,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1851,10 +1848,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12170,146 +12163,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="73" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73" t="s">
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="86" t="s">
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="81"/>
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="83"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="82" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82" t="s">
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="83" t="s">
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="85"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="87"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="74" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="79"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="81"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -16688,146 +16681,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="73" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91" t="s">
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="86" t="s">
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="81"/>
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="83"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="82" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95" t="s">
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="95"/>
-      <c r="AE2" s="95"/>
-      <c r="AF2" s="96" t="s">
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="96"/>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="97"/>
-      <c r="AL2" s="97"/>
-      <c r="AM2" s="97"/>
-      <c r="AN2" s="98"/>
+      <c r="AG2" s="98"/>
+      <c r="AH2" s="99"/>
+      <c r="AI2" s="99"/>
+      <c r="AJ2" s="99"/>
+      <c r="AK2" s="99"/>
+      <c r="AL2" s="99"/>
+      <c r="AM2" s="99"/>
+      <c r="AN2" s="100"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="74" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="93"/>
-      <c r="AE3" s="93"/>
-      <c r="AF3" s="93"/>
-      <c r="AG3" s="93"/>
-      <c r="AH3" s="93"/>
-      <c r="AI3" s="93"/>
-      <c r="AJ3" s="93"/>
-      <c r="AK3" s="93"/>
-      <c r="AL3" s="93"/>
-      <c r="AM3" s="93"/>
-      <c r="AN3" s="94"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="95"/>
+      <c r="X3" s="95"/>
+      <c r="Y3" s="95"/>
+      <c r="Z3" s="95"/>
+      <c r="AA3" s="95"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="95"/>
+      <c r="AD3" s="95"/>
+      <c r="AE3" s="95"/>
+      <c r="AF3" s="95"/>
+      <c r="AG3" s="95"/>
+      <c r="AH3" s="95"/>
+      <c r="AI3" s="95"/>
+      <c r="AJ3" s="95"/>
+      <c r="AK3" s="95"/>
+      <c r="AL3" s="95"/>
+      <c r="AM3" s="95"/>
+      <c r="AN3" s="96"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -21310,146 +21303,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="73" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91" t="s">
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="86" t="s">
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="81"/>
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="83"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="82" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95" t="s">
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="95"/>
-      <c r="AE2" s="95"/>
-      <c r="AF2" s="96" t="s">
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="96"/>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="97"/>
-      <c r="AL2" s="97"/>
-      <c r="AM2" s="97"/>
-      <c r="AN2" s="98"/>
+      <c r="AG2" s="98"/>
+      <c r="AH2" s="99"/>
+      <c r="AI2" s="99"/>
+      <c r="AJ2" s="99"/>
+      <c r="AK2" s="99"/>
+      <c r="AL2" s="99"/>
+      <c r="AM2" s="99"/>
+      <c r="AN2" s="100"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="74" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="93"/>
-      <c r="AE3" s="93"/>
-      <c r="AF3" s="93"/>
-      <c r="AG3" s="93"/>
-      <c r="AH3" s="93"/>
-      <c r="AI3" s="93"/>
-      <c r="AJ3" s="93"/>
-      <c r="AK3" s="93"/>
-      <c r="AL3" s="93"/>
-      <c r="AM3" s="93"/>
-      <c r="AN3" s="94"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="95"/>
+      <c r="X3" s="95"/>
+      <c r="Y3" s="95"/>
+      <c r="Z3" s="95"/>
+      <c r="AA3" s="95"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="95"/>
+      <c r="AD3" s="95"/>
+      <c r="AE3" s="95"/>
+      <c r="AF3" s="95"/>
+      <c r="AG3" s="95"/>
+      <c r="AH3" s="95"/>
+      <c r="AI3" s="95"/>
+      <c r="AJ3" s="95"/>
+      <c r="AK3" s="95"/>
+      <c r="AL3" s="95"/>
+      <c r="AM3" s="95"/>
+      <c r="AN3" s="96"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -25932,146 +25925,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="73" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73" t="s">
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="86" t="s">
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="81"/>
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="83"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="82" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82" t="s">
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="83" t="s">
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="85"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="87"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="74" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="79"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="81"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -30495,146 +30488,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="73" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73" t="s">
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="86" t="s">
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="81"/>
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="83"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="82" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82" t="s">
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="83" t="s">
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="85"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="87"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="74" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="79"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="81"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -35057,154 +35050,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="73" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73" t="s">
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73" t="s">
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73" t="s">
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="86" t="s">
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="81"/>
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="83"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="82" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82" t="s">
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82" t="s">
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="87">
+      <c r="X2" s="84"/>
+      <c r="Y2" s="89">
         <v>44350</v>
       </c>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="83" t="s">
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="85"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="87"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="74" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="79"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="81"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -36934,7 +36927,7 @@
       <c r="B46" s="6"/>
       <c r="C46" s="26"/>
       <c r="D46" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="26"/>
@@ -37017,7 +37010,7 @@
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
@@ -37060,7 +37053,7 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="D49" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
@@ -37103,7 +37096,7 @@
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="D50" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
@@ -37145,7 +37138,7 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="D51" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -37187,7 +37180,7 @@
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="D52" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -39645,146 +39638,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="73" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73" t="s">
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="86" t="s">
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="81"/>
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="83"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="82" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82" t="s">
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="83" t="s">
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="85"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="87"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="74" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="79"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="81"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -44179,8 +44172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D388540-1D8D-4B1B-A881-9AEFD5537A92}">
   <dimension ref="A1:AN113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L86" sqref="L86"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -44189,152 +44182,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="73" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73" t="s">
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73" t="s">
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73" t="s">
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="86" t="s">
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="81"/>
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="83"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="82" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82" t="s">
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="88">
+      <c r="X2" s="84"/>
+      <c r="Y2" s="90">
         <v>44351</v>
       </c>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="83" t="s">
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="85"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="87"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="74" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="79"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="81"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -45918,9 +45911,7 @@
     <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -45963,9 +45954,7 @@
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -46049,9 +46038,7 @@
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="26"/>
-      <c r="D46" s="26" t="s">
-        <v>23</v>
-      </c>
+      <c r="D46" s="26"/>
       <c r="E46" s="26"/>
       <c r="F46" s="26"/>
       <c r="G46" s="26"/>
@@ -46093,9 +46080,6 @@
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="26"/>
-      <c r="D47" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
@@ -46136,9 +46120,6 @@
     <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="D48" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="AB48" s="26"/>
       <c r="AC48" s="26"/>
       <c r="AD48" s="26"/>
@@ -46157,9 +46138,7 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="26"/>
-      <c r="D49" s="26" t="s">
-        <v>26</v>
-      </c>
+      <c r="D49" s="26"/>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
@@ -46200,9 +46179,7 @@
     <row r="50" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="D50" s="26" t="s">
-        <v>27</v>
-      </c>
+      <c r="D50" s="26"/>
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
@@ -46283,7 +46260,7 @@
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E52" s="26"/>
       <c r="F52" s="26"/>
@@ -46326,7 +46303,7 @@
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="D53" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E53" s="26"/>
       <c r="F53" s="26"/>
@@ -46409,7 +46386,7 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E55" s="26"/>
       <c r="F55" s="26"/>
@@ -46438,7 +46415,7 @@
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="D56" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E56" s="26"/>
       <c r="F56" s="26"/>
@@ -46487,7 +46464,7 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X58" s="26"/>
       <c r="Y58" s="26"/>
@@ -46511,7 +46488,7 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="D59" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X59" s="26"/>
       <c r="Y59" s="26"/>
@@ -46556,7 +46533,7 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X61" s="26"/>
       <c r="Y61" s="26"/>
@@ -46580,7 +46557,7 @@
       <c r="A62" s="6"/>
       <c r="B62" s="27"/>
       <c r="D62" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V62" s="26"/>
       <c r="X62" s="26"/>
@@ -46626,7 +46603,7 @@
       <c r="A64" s="6"/>
       <c r="B64" s="27"/>
       <c r="C64" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X64" s="26"/>
       <c r="Y64" s="26"/>
@@ -46650,7 +46627,7 @@
       <c r="A65" s="6"/>
       <c r="B65" s="27"/>
       <c r="D65" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X65" s="26"/>
       <c r="Y65" s="26"/>
@@ -46695,7 +46672,7 @@
       <c r="A67" s="6"/>
       <c r="B67" s="27"/>
       <c r="C67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X67" s="26"/>
       <c r="Y67" s="26"/>
@@ -46719,7 +46696,7 @@
       <c r="A68" s="6"/>
       <c r="B68" s="27"/>
       <c r="D68" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X68" s="26"/>
       <c r="Y68" s="26"/>
@@ -46743,7 +46720,7 @@
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="D69" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E69" s="26"/>
       <c r="F69" s="26"/>
@@ -46825,7 +46802,7 @@
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M71" s="26"/>
       <c r="N71" s="2"/>
@@ -46860,7 +46837,7 @@
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="D72" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M72" s="26"/>
       <c r="N72" s="26"/>
@@ -46895,7 +46872,7 @@
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="D73" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E73" s="26"/>
       <c r="F73" s="26"/>
@@ -46942,7 +46919,7 @@
     </row>
     <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="7"/>
-      <c r="B75" s="99"/>
+      <c r="B75" s="64"/>
       <c r="AM75" s="60"/>
       <c r="AN75" s="60"/>
     </row>
@@ -47231,24 +47208,24 @@
         <v>1</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
       <c r="L83" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
       <c r="O83" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
@@ -47283,24 +47260,24 @@
         <v>2</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
       <c r="L84" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
       <c r="O84" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
@@ -47335,24 +47312,24 @@
         <v>3</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
       <c r="H85" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
       <c r="L85" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
       <c r="O85" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P85" s="17"/>
       <c r="Q85" s="17"/>
@@ -47387,24 +47364,24 @@
         <v>4</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
       <c r="H86" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
       <c r="L86" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
       <c r="O86" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P86" s="17"/>
       <c r="Q86" s="17"/>
@@ -47439,24 +47416,24 @@
         <v>5</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
       <c r="H87" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
       <c r="K87" s="19"/>
       <c r="L87" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
       <c r="O87" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P87" s="17"/>
       <c r="Q87" s="17"/>
@@ -47491,24 +47468,24 @@
         <v>6</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="15"/>
       <c r="H88" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
       <c r="K88" s="19"/>
       <c r="L88" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M88" s="17"/>
       <c r="N88" s="19"/>
       <c r="O88" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P88" s="17"/>
       <c r="Q88" s="17"/>
@@ -47543,24 +47520,24 @@
         <v>7</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="15"/>
       <c r="H89" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I89" s="18"/>
       <c r="J89" s="17"/>
       <c r="K89" s="19"/>
       <c r="L89" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M89" s="17"/>
       <c r="N89" s="19"/>
       <c r="O89" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P89" s="17"/>
       <c r="Q89" s="17"/>
@@ -47595,24 +47572,24 @@
         <v>8</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="15"/>
       <c r="H90" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I90" s="18"/>
       <c r="J90" s="17"/>
       <c r="K90" s="19"/>
       <c r="L90" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M90" s="17"/>
       <c r="N90" s="19"/>
       <c r="O90" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P90" s="17"/>
       <c r="Q90" s="17"/>
@@ -48398,7 +48375,7 @@
     </row>
     <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="7"/>
-      <c r="B109" s="100"/>
+      <c r="B109" s="65"/>
       <c r="C109" s="15"/>
       <c r="D109" s="16"/>
       <c r="E109" s="17"/>
@@ -48645,154 +48622,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="73" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73" t="s">
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73" t="s">
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73" t="s">
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="86" t="s">
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="81"/>
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="83"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="82" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82" t="s">
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="89">
+      <c r="X2" s="84"/>
+      <c r="Y2" s="91">
         <v>44351</v>
       </c>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="83" t="s">
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="85"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="87"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="74" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="77" t="s">
+      <c r="L3" s="77"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="79"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="81"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -50510,7 +50487,7 @@
       <c r="B46" s="6"/>
       <c r="C46" s="26"/>
       <c r="D46" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="26"/>
@@ -50593,7 +50570,7 @@
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
@@ -50636,7 +50613,7 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="D49" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
@@ -50679,7 +50656,7 @@
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="D50" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
@@ -53229,154 +53206,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="73" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73" t="s">
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73" t="s">
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73" t="s">
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="86" t="s">
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="81"/>
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="83"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="82" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82" t="s">
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="89">
+      <c r="X2" s="84"/>
+      <c r="Y2" s="91">
         <v>44351</v>
       </c>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="83" t="s">
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="85"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="87"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="74" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="77" t="s">
+      <c r="L3" s="77"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="79"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="81"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -55094,7 +55071,7 @@
       <c r="B46" s="6"/>
       <c r="C46" s="26"/>
       <c r="D46" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="26"/>
@@ -55177,7 +55154,7 @@
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
@@ -55220,7 +55197,7 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="D49" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
@@ -55263,7 +55240,7 @@
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="D50" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
@@ -55306,7 +55283,7 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="D51" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E51" s="26"/>
       <c r="F51" s="26"/>
@@ -55349,7 +55326,7 @@
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="D52" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E52" s="26"/>
       <c r="F52" s="26"/>
@@ -57818,154 +57795,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="73" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73" t="s">
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73" t="s">
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73" t="s">
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="86" t="s">
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="81"/>
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="83"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="82" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82" t="s">
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82" t="s">
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="87">
+      <c r="X2" s="84"/>
+      <c r="Y2" s="89">
         <v>44350</v>
       </c>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="83" t="s">
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="85"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="87"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="74" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="79"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="81"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
